--- a/Tablas y graficos.xlsx
+++ b/Tablas y graficos.xlsx
@@ -1,37 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibra\Desktop\UCR\Analisis de algoritmos\Tarea programada I\Tarea-Programada-I-Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4846CAF-F983-413C-B1E9-C388D55F2C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64084F2-DBA5-4EF5-B633-90C010860E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{829A62E6-9063-411E-BB63-F24EA9FE64CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{829A62E6-9063-411E-BB63-F24EA9FE64CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Parte II" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId3"/>
-    <pivotCache cacheId="54" r:id="rId4"/>
-    <pivotCache cacheId="57" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="14" r:id="rId6"/>
+    <pivotCache cacheId="16" r:id="rId7"/>
+    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="20" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>Seleccion</t>
   </si>
@@ -85,6 +100,24 @@
   </si>
   <si>
     <t>Mezcla</t>
+  </si>
+  <si>
+    <t>Cuadro 2</t>
+  </si>
+  <si>
+    <t>Montículos</t>
+  </si>
+  <si>
+    <t>Rápido</t>
+  </si>
+  <si>
+    <t>Residuos</t>
+  </si>
+  <si>
+    <t>Monticulos</t>
+  </si>
+  <si>
+    <t>Rapido</t>
   </si>
 </sst>
 </file>
@@ -157,11 +190,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,6 +743,922 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparación de algoritmos en escala logarítmica</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$C$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selección</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$C$98:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2668.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42730</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F937-4345-B43A-BF5FA6315069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$D$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inserción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$D$98:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1872.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6919.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F937-4345-B43A-BF5FA6315069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$E$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mezcla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$E$98:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F937-4345-B43A-BF5FA6315069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$F$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montículos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$F$98:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F937-4345-B43A-BF5FA6315069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$G$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rápido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$G$98:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F937-4345-B43A-BF5FA6315069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$H$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residuos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$H$98:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F937-4345-B43A-BF5FA6315069}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1541328368"/>
+        <c:axId val="1445626656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1541328368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> del arreglo (miles)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445626656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1445626656"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541328368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1868,7 +2817,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$52</c:f>
+              <c:f>Hoja1!$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1903,7 +2852,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$53:$B$56</c:f>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1924,7 +2873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$53:$C$56</c:f>
+              <c:f>Hoja1!$C$59:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1955,7 +2904,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$52</c:f>
+              <c:f>Hoja1!$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1990,7 +2939,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$53:$B$56</c:f>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2011,7 +2960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$53:$D$56</c:f>
+              <c:f>Hoja1!$D$59:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2042,7 +2991,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$52</c:f>
+              <c:f>Hoja1!$E$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2077,7 +3026,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$53:$B$56</c:f>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2098,7 +3047,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$53:$E$56</c:f>
+              <c:f>Hoja1!$E$59:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2121,6 +3070,267 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E423-4A7E-964D-03833C831C61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montículos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$59:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B6B-4FA6-B52D-F72E582EC2B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rápido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$59:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B6B-4FA6-B52D-F72E582EC2B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residuos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$59:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B6B-4FA6-B52D-F72E582EC2B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2522,7 +3732,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$52</c:f>
+              <c:f>Hoja1!$C$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2557,7 +3767,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$53:$B$56</c:f>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2578,7 +3788,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$53:$C$56</c:f>
+              <c:f>Hoja1!$C$59:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2609,7 +3819,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$52</c:f>
+              <c:f>Hoja1!$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2644,7 +3854,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$53:$B$56</c:f>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2665,7 +3875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$53:$D$56</c:f>
+              <c:f>Hoja1!$D$59:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2696,7 +3906,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$52</c:f>
+              <c:f>Hoja1!$E$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2731,7 +3941,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$53:$B$56</c:f>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2752,7 +3962,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$53:$E$56</c:f>
+              <c:f>Hoja1!$E$59:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2775,6 +3985,267 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8682-4B9A-8C34-98EC5BB1D168}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montículos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$59:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BD2-4281-84AC-89094E3F812D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rápido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$59:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BD2-4281-84AC-89094E3F812D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residuos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$B$59:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$59:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4BD2-4281-84AC-89094E3F812D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3097,7 +4568,2784 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Tablas y graficos.xlsx]Parte II!TablaDinámica3</c:name>
+    <c:fmtId val="13"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Montículos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Parte II'!$E$7:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$F$7:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E178-462B-AD43-161AB4FDA0B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1545462368"/>
+        <c:axId val="1541268224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1545462368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> del arreglo (miles)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541268224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1541268224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1545462368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Tablas y graficos.xlsx]Parte II!TablaDinámica4</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Rápido</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Parte II'!$E$25:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$F$25:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C7D-4E0B-B664-8B2C0EBEF94A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1541329760"/>
+        <c:axId val="1551568000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1541329760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamaño del</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> arreglo (miles)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1551568000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1551568000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541329760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Tablas y graficos.xlsx]Parte II!TablaDinámica5</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residuos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$F$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Parte II'!$E$36:$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$F$36:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-991C-4769-A608-6D7582D2186C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1550293632"/>
+        <c:axId val="1541265344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1550293632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamaño del arreglo (miles)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541265344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1541265344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1550293632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparación de algoritmos en escala normal</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$C$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selección</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$C$98:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2668.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42730</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B75C-4F9C-96CA-1F1845B6EDE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$D$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inserción</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$D$98:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1872.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6919.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B75C-4F9C-96CA-1F1845B6EDE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$E$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mezcla</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$E$98:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B75C-4F9C-96CA-1F1845B6EDE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$F$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montículos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$F$98:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B75C-4F9C-96CA-1F1845B6EDE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$G$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rápido</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$G$98:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B75C-4F9C-96CA-1F1845B6EDE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Parte II'!$H$97</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Residuos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Parte II'!$B$98:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Parte II'!$H$98:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.333333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B75C-4F9C-96CA-1F1845B6EDE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1541328368"/>
+        <c:axId val="1445626656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1541328368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> del arreglo (miles)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445626656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1445626656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1541328368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3297,6 +7545,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3800,7 +8208,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4303,7 +8711,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4806,7 +9214,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5309,7 +9717,2522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5924,16 +12847,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>352011</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>19877</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>620366</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>11594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>749576</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>96077</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>696291</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5960,16 +12883,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347870</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>745435</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>101048</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>92766</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5999,10 +12922,205 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322608</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>322608</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AF7047-14DF-4EAB-B394-60E3C79380F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>187186</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455A7403-CB45-4E76-87C2-474D5C0CE50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327163</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327163</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>178904</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE0E48E-CB48-4659-85BC-DCE91EF0E9D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277467</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>11595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>277467</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>87795</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D5D498-5BA6-45A1-A5A1-B7B380A15244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>92766</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6B9ED2-3D1C-4482-9107-A2EE4D0617C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45186.696811111113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{86A7E5A2-B532-4668-BC9D-30488702A7A6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45214.649125925927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{A7D7905F-0D6D-4A53-BB12-F3D8BB6B24F4}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Tabla2"/>
+    <worksheetSource name="Tabla4"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Tamano" numFmtId="0">
@@ -6014,7 +13132,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Tiempo" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2668.3333333333335" maxValue="42730"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="37"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -6026,7 +13144,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45186.69681134259" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{B66B5925-8391-496B-B6EB-7C63351C388B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45214.649126157405" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{B66B5925-8391-496B-B6EB-7C63351C388B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabla3"/>
   </cacheSource>
@@ -6052,9 +13170,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45186.696811458336" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{A7D7905F-0D6D-4A53-BB12-F3D8BB6B24F4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45214.649252662035" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{86A7E5A2-B532-4668-BC9D-30488702A7A6}">
   <cacheSource type="worksheet">
-    <worksheetSource name="Tabla4"/>
+    <worksheetSource name="Tabla2"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Tamano" numFmtId="0">
@@ -6066,7 +13184,85 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Tiempo" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="37"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2668.3333333333335" maxValue="42730"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45214.64939189815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{0109E4DC-11FE-4BF6-94D2-50FD7364EBDA}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla22"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Tamano" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="200" count="4">
+        <n v="50"/>
+        <n v="100"/>
+        <n v="150"/>
+        <n v="200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.333333333333334" maxValue="65.666666666666671"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45214.649722337963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{242D45DD-7A10-4309-8194-FF02F6D8D02E}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla36"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Tamano" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="200" count="4">
+        <n v="50"/>
+        <n v="100"/>
+        <n v="150"/>
+        <n v="200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.3333333333333339" maxValue="42.333333333333336"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ibra" refreshedDate="45214.649966898149" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="4" xr:uid="{21F46B3E-5510-4591-89B8-7CCED714535D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabla48"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Tamano" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="200" count="4">
+        <n v="50"/>
+        <n v="100"/>
+        <n v="150"/>
+        <n v="200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Tiempo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3" maxValue="14.333333333333334"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -6081,19 +13277,19 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
   <r>
     <x v="0"/>
-    <n v="2668.3333333333335"/>
+    <n v="8"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="10694"/>
+    <n v="17"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="24016"/>
+    <n v="27"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="42730"/>
+    <n v="37"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -6123,25 +13319,88 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
   <r>
     <x v="0"/>
-    <n v="8"/>
+    <n v="2668.3333333333335"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="17"/>
+    <n v="10694"/>
   </r>
   <r>
     <x v="2"/>
-    <n v="27"/>
+    <n v="24016"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="37"/>
+    <n v="42730"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <x v="0"/>
+    <n v="14.333333333333334"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="30.333333333333332"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="47.333333333333336"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="65.666666666666671"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <x v="0"/>
+    <n v="8.3333333333333339"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="31.666666666666668"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="42.333333333333336"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <x v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="6.666666666666667"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="14.333333333333334"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5F2380C-FE3F-47DB-BFCE-4C497FFA1A8D}" name="TablaDinámica5" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D5F2380C-FE3F-47DB-BFCE-4C497FFA1A8D}" name="TablaDinámica5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="E35:F40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6214,7 +13473,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{684E5368-E8CE-4DF4-BD9D-C0F65F7D8293}" name="TablaDinámica4" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{684E5368-E8CE-4DF4-BD9D-C0F65F7D8293}" name="TablaDinámica4" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="E24:F29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -6287,7 +13546,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF43201D-CAD0-4018-8821-8793CD18327F}" name="TablaDinámica3" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF43201D-CAD0-4018-8821-8793CD18327F}" name="TablaDinámica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="E6:F11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -6350,6 +13609,243 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07441B5C-A649-44A4-A6F5-550300D21AE8}" name="TablaDinámica3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="E6:F11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Tiempo" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D3F909A-21CC-41BC-B9F4-4F76CC13B3AC}" name="TablaDinámica4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="E24:F29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Tiempo" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5592C55E-E301-4325-AC97-FEC86C2A7B52}" name="TablaDinámica5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="E35:F40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Tiempo" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{55A4611F-673E-41D3-BB28-8AC29E42365E}" name="Tabla2" displayName="Tabla2" ref="B3:C7" totalsRowShown="0">
   <autoFilter ref="B3:C7" xr:uid="{55A4611F-673E-41D3-BB28-8AC29E42365E}"/>
@@ -6384,13 +13880,65 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E2D9DF31-3135-4117-8850-1AF8FB718A00}" name="Tabla6" displayName="Tabla6" ref="B52:E56" totalsRowShown="0">
-  <autoFilter ref="B52:E56" xr:uid="{E2D9DF31-3135-4117-8850-1AF8FB718A00}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E2D9DF31-3135-4117-8850-1AF8FB718A00}" name="Tabla6" displayName="Tabla6" ref="B58:H62" totalsRowShown="0">
+  <autoFilter ref="B58:H62" xr:uid="{E2D9DF31-3135-4117-8850-1AF8FB718A00}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{579704FA-63A9-4C3C-9990-2152BFEE89E5}" name="Tamano"/>
     <tableColumn id="2" xr3:uid="{A0178454-68CB-47AE-9983-EE4D73B33021}" name="Selección"/>
     <tableColumn id="3" xr3:uid="{A04318F3-6496-4D63-B3F3-EC5D79ED24CD}" name="Inserción"/>
     <tableColumn id="4" xr3:uid="{A29862E8-FA11-4F4C-A418-E326DAC9DE17}" name="Mezcla"/>
+    <tableColumn id="5" xr3:uid="{C38269D0-8F88-43F1-A5A7-AF71A93D1DC0}" name="Montículos"/>
+    <tableColumn id="6" xr3:uid="{55F85110-EE45-40A0-93A1-18925C805F8F}" name="Rápido"/>
+    <tableColumn id="7" xr3:uid="{995AC3A1-FAC8-4460-A308-020BBFDED5C3}" name="Residuos"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FAEDB16D-1A83-4550-BB02-3DEAEEF99335}" name="Tabla22" displayName="Tabla22" ref="B3:C7" totalsRowShown="0">
+  <autoFilter ref="B3:C7" xr:uid="{55A4611F-673E-41D3-BB28-8AC29E42365E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{58E4A5D6-00EF-40D0-B32B-00576E764A8A}" name="Tamano"/>
+    <tableColumn id="2" xr3:uid="{41448239-80A5-426C-8FE3-BA8181B80EC5}" name="Tiempo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E67B7DB4-4C39-441B-9BF9-1223E4B2BD63}" name="Tabla36" displayName="Tabla36" ref="B23:C27" totalsRowShown="0">
+  <autoFilter ref="B23:C27" xr:uid="{49F16C65-1357-48D3-B91E-FA153A2B4C3A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A5AD203C-DA4D-4D0E-AEAB-7C2BD2DBC40D}" name="Tamano"/>
+    <tableColumn id="2" xr3:uid="{3B7B3C2A-3E05-479C-9707-A622E10A3097}" name="Tiempo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9BFCB8EE-7497-45D0-A9F8-73874B55F54F}" name="Tabla48" displayName="Tabla48" ref="B36:C40" totalsRowShown="0">
+  <autoFilter ref="B36:C40" xr:uid="{7C1893F7-78E4-49AC-BF92-B72074815F88}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{405346B7-D8F4-4E3E-83BF-0E701BA81B55}" name="Tamano"/>
+    <tableColumn id="2" xr3:uid="{B0E9F985-6E52-4859-8BB7-D899E0FED9B5}" name="Tiempo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EF330A76-93F2-4F15-BD76-857BFBD96E8F}" name="Tabla69" displayName="Tabla69" ref="B97:H101" totalsRowShown="0">
+  <autoFilter ref="B97:H101" xr:uid="{E2D9DF31-3135-4117-8850-1AF8FB718A00}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CA9F9B9F-3B39-4786-AC2B-419B575EE604}" name="Tamano"/>
+    <tableColumn id="2" xr3:uid="{3D723455-0BBD-4234-84C0-8689E2A4CA56}" name="Selección"/>
+    <tableColumn id="3" xr3:uid="{1C72E95D-C0FE-4CE4-89B5-EC436F269FF1}" name="Inserción"/>
+    <tableColumn id="4" xr3:uid="{6149AD8B-1C64-4C78-BE1F-408D89B5FE32}" name="Mezcla"/>
+    <tableColumn id="5" xr3:uid="{8E90E7F6-9D91-487F-914D-C7534320448A}" name="Montículos"/>
+    <tableColumn id="6" xr3:uid="{E77D2D9F-B7F3-49BA-9C0A-245554480564}" name="Rápido"/>
+    <tableColumn id="7" xr3:uid="{95C3F2E7-FE17-47BF-ABC4-42FC93DF0DCC}" name="Residuos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6693,17 +14241,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FE6EED-AC11-46A7-82D2-DA357707279C}">
-  <dimension ref="B2:F56"/>
+  <dimension ref="B2:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6760,7 +14309,7 @@
       <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="12">
         <v>2668.3333333333335</v>
       </c>
     </row>
@@ -6768,7 +14317,7 @@
       <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="12">
         <v>10694</v>
       </c>
     </row>
@@ -6776,7 +14325,7 @@
       <c r="E9" s="2">
         <v>150</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="12">
         <v>24016</v>
       </c>
     </row>
@@ -6784,7 +14333,7 @@
       <c r="E10" s="2">
         <v>200</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="12">
         <v>42730</v>
       </c>
     </row>
@@ -6792,7 +14341,7 @@
       <c r="E11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="12">
         <v>80108.333333333343</v>
       </c>
     </row>
@@ -6833,7 +14382,7 @@
       <c r="E25" s="2">
         <v>50</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="12">
         <v>1872.6666666666667</v>
       </c>
     </row>
@@ -6847,7 +14396,7 @@
       <c r="E26" s="2">
         <v>100</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="12">
         <v>6919.666666666667</v>
       </c>
     </row>
@@ -6861,7 +14410,7 @@
       <c r="E27" s="2">
         <v>150</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="12">
         <v>15539</v>
       </c>
     </row>
@@ -6869,7 +14418,7 @@
       <c r="E28" s="2">
         <v>200</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="12">
         <v>27620</v>
       </c>
     </row>
@@ -6877,7 +14426,7 @@
       <c r="E29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="12">
         <v>51951.333333333336</v>
       </c>
     </row>
@@ -6902,7 +14451,7 @@
       <c r="E36" s="2">
         <v>50</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="12">
         <v>8</v>
       </c>
     </row>
@@ -6916,7 +14465,7 @@
       <c r="E37" s="2">
         <v>100</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="12">
         <v>17</v>
       </c>
     </row>
@@ -6930,7 +14479,7 @@
       <c r="E38" s="2">
         <v>150</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="12">
         <v>27</v>
       </c>
     </row>
@@ -6944,7 +14493,7 @@
       <c r="E39" s="2">
         <v>200</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="12">
         <v>37</v>
       </c>
     </row>
@@ -6958,78 +14507,123 @@
       <c r="E40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="12">
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>7</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D58" t="s">
         <v>16</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E58" t="s">
         <v>17</v>
       </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>50</v>
       </c>
-      <c r="C53">
+      <c r="C59">
         <v>2668.3333333333335</v>
       </c>
-      <c r="D53">
+      <c r="D59">
         <v>1872.6666666666667</v>
       </c>
-      <c r="E53">
+      <c r="E59">
         <v>8</v>
       </c>
+      <c r="F59">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="G59">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>100</v>
       </c>
-      <c r="C54">
+      <c r="C60">
         <v>10694</v>
       </c>
-      <c r="D54">
+      <c r="D60">
         <v>6919.666666666667</v>
       </c>
-      <c r="E54">
+      <c r="E60">
         <v>17</v>
       </c>
+      <c r="F60">
+        <v>30.333333333333332</v>
+      </c>
+      <c r="G60">
+        <v>18</v>
+      </c>
+      <c r="H60">
+        <v>6.666666666666667</v>
+      </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>150</v>
       </c>
-      <c r="C55">
+      <c r="C61">
         <v>24016</v>
       </c>
-      <c r="D55">
+      <c r="D61">
         <v>15539</v>
       </c>
-      <c r="E55">
+      <c r="E61">
         <v>27</v>
       </c>
+      <c r="F61">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="G61">
+        <v>31.666666666666668</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>200</v>
       </c>
-      <c r="C56">
+      <c r="C62">
         <v>42730</v>
       </c>
-      <c r="D56">
+      <c r="D62">
         <v>27620</v>
       </c>
-      <c r="E56">
+      <c r="E62">
         <v>37</v>
+      </c>
+      <c r="F62">
+        <v>65.666666666666671</v>
+      </c>
+      <c r="G62">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="H62">
+        <v>14.333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -7045,11 +14639,410 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B91EDCF-D8E3-42EA-B00C-DE0538C4124E}">
+  <dimension ref="B2:H101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>30.333333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>65.666666666666671</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="12">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="12">
+        <v>30.333333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>150</v>
+      </c>
+      <c r="F9" s="12">
+        <v>47.333333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>200</v>
+      </c>
+      <c r="F10" s="12">
+        <v>65.666666666666671</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12">
+        <v>157.66666666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="E25" s="2">
+        <v>50</v>
+      </c>
+      <c r="F25" s="12">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>150</v>
+      </c>
+      <c r="C26">
+        <v>31.666666666666668</v>
+      </c>
+      <c r="E26" s="2">
+        <v>100</v>
+      </c>
+      <c r="F26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>200</v>
+      </c>
+      <c r="C27">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="E27" s="2">
+        <v>150</v>
+      </c>
+      <c r="F27" s="12">
+        <v>31.666666666666668</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>200</v>
+      </c>
+      <c r="F28" s="12">
+        <v>42.333333333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="12">
+        <v>100.33333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2">
+        <v>50</v>
+      </c>
+      <c r="F36" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>100</v>
+      </c>
+      <c r="F37" s="12">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E38" s="2">
+        <v>150</v>
+      </c>
+      <c r="F38" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>150</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2">
+        <v>200</v>
+      </c>
+      <c r="F39" s="12">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>200</v>
+      </c>
+      <c r="C40">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>50</v>
+      </c>
+      <c r="C98">
+        <v>2668.3333333333335</v>
+      </c>
+      <c r="D98">
+        <v>1872.6666666666667</v>
+      </c>
+      <c r="E98">
+        <v>8</v>
+      </c>
+      <c r="F98">
+        <v>14.333333333333334</v>
+      </c>
+      <c r="G98">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>10694</v>
+      </c>
+      <c r="D99">
+        <v>6919.666666666667</v>
+      </c>
+      <c r="E99">
+        <v>17</v>
+      </c>
+      <c r="F99">
+        <v>30.333333333333332</v>
+      </c>
+      <c r="G99">
+        <v>18</v>
+      </c>
+      <c r="H99">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>150</v>
+      </c>
+      <c r="C100">
+        <v>24016</v>
+      </c>
+      <c r="D100">
+        <v>15539</v>
+      </c>
+      <c r="E100">
+        <v>27</v>
+      </c>
+      <c r="F100">
+        <v>47.333333333333336</v>
+      </c>
+      <c r="G100">
+        <v>31.666666666666668</v>
+      </c>
+      <c r="H100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>200</v>
+      </c>
+      <c r="C101">
+        <v>42730</v>
+      </c>
+      <c r="D101">
+        <v>27620</v>
+      </c>
+      <c r="E101">
+        <v>37</v>
+      </c>
+      <c r="F101">
+        <v>65.666666666666671</v>
+      </c>
+      <c r="G101">
+        <v>42.333333333333336</v>
+      </c>
+      <c r="H101">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="4">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153E17E2-819E-4FEE-9E3A-BE1C1B440F01}">
-  <dimension ref="C4:H21"/>
+  <dimension ref="C4:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7057,12 +15050,15 @@
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="M4" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
         <v>10</v>
@@ -7070,23 +15066,41 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="3"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E7" s="4"/>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E8" s="4"/>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
@@ -7105,8 +15119,26 @@
       <c r="H9" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="K9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>3</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
@@ -7122,11 +15154,30 @@
       <c r="G10">
         <v>2669</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <v>2668.3333333333335</v>
       </c>
+      <c r="K10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="P10" s="8">
+        <f>AVERAGE(M10:O10)</f>
+        <v>14.333333333333334</v>
+      </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>100</v>
       </c>
@@ -7139,28 +15190,60 @@
       <c r="G11">
         <v>10690</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>10694</v>
       </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>31</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" ref="P11:P21" si="0">AVERAGE(M11:O11)</f>
+        <v>30.333333333333332</v>
+      </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>150</v>
       </c>
       <c r="E12">
         <v>24048</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12">
         <v>23998</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12">
         <v>24002</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>24016</v>
       </c>
+      <c r="L12">
+        <v>150</v>
+      </c>
+      <c r="M12">
+        <v>47</v>
+      </c>
+      <c r="N12" s="10">
+        <v>47</v>
+      </c>
+      <c r="O12">
+        <v>48</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="0"/>
+        <v>47.333333333333336</v>
+      </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
       <c r="D13" s="4">
         <v>200</v>
@@ -7174,65 +15257,133 @@
       <c r="G13" s="4">
         <v>42739</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="9">
         <v>42730</v>
       </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
+        <v>200</v>
+      </c>
+      <c r="M13" s="4">
+        <v>66</v>
+      </c>
+      <c r="N13" s="4">
+        <v>65</v>
+      </c>
+      <c r="O13" s="4">
+        <v>66</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="0"/>
+        <v>65.666666666666671</v>
+      </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D14">
         <v>50</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14">
         <v>2169</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14">
         <v>1721</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14">
         <v>1728</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>1872.6666666666667</v>
       </c>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+      <c r="M14" s="11">
+        <v>8</v>
+      </c>
+      <c r="N14" s="11">
+        <v>8</v>
+      </c>
+      <c r="O14" s="11">
+        <v>9</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>100</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15">
         <v>6934</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15">
         <v>6925</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15">
         <v>6900</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>6919.666666666667</v>
       </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15" s="11">
+        <v>18</v>
+      </c>
+      <c r="N15" s="11">
+        <v>18</v>
+      </c>
+      <c r="O15" s="11">
+        <v>18</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>150</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16">
         <v>15555</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16">
         <v>15511</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16">
         <v>15551</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>15539</v>
       </c>
+      <c r="L16">
+        <v>150</v>
+      </c>
+      <c r="M16" s="11">
+        <v>35</v>
+      </c>
+      <c r="N16" s="11">
+        <v>31</v>
+      </c>
+      <c r="O16" s="11">
+        <v>29</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="0"/>
+        <v>31.666666666666668</v>
+      </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
       <c r="D17" s="4">
         <v>200</v>
@@ -7246,65 +15397,133 @@
       <c r="G17" s="4">
         <v>27567</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="9">
         <v>27620</v>
       </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>200</v>
+      </c>
+      <c r="M17" s="4">
+        <v>41</v>
+      </c>
+      <c r="N17" s="4">
+        <v>41</v>
+      </c>
+      <c r="O17" s="4">
+        <v>45</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="0"/>
+        <v>42.333333333333336</v>
+      </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D18">
         <v>50</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18">
         <v>8</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18">
         <v>8</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18">
         <v>8</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <v>8</v>
       </c>
+      <c r="K18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18" s="11">
+        <v>3</v>
+      </c>
+      <c r="N18" s="11">
+        <v>3</v>
+      </c>
+      <c r="O18" s="11">
+        <v>3</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>100</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19">
         <v>17</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19">
         <v>17</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19">
         <v>17</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <v>17</v>
       </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19" s="11">
+        <v>6</v>
+      </c>
+      <c r="N19" s="11">
+        <v>7</v>
+      </c>
+      <c r="O19" s="11">
+        <v>7</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>150</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
         <v>27</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20">
         <v>27</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20">
         <v>27</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>27</v>
       </c>
+      <c r="L20">
+        <v>150</v>
+      </c>
+      <c r="M20" s="11">
+        <v>10</v>
+      </c>
+      <c r="N20" s="11">
+        <v>10</v>
+      </c>
+      <c r="O20" s="11">
+        <v>10</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="D21" s="4">
         <v>200</v>
@@ -7318,11 +15537,31 @@
       <c r="G21" s="4">
         <v>37</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="9">
         <v>37</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4">
+        <v>200</v>
+      </c>
+      <c r="M21" s="4">
+        <v>15</v>
+      </c>
+      <c r="N21" s="4">
+        <v>14</v>
+      </c>
+      <c r="O21" s="4">
+        <v>14</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="0"/>
+        <v>14.333333333333334</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="P10:P21" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>